--- a/学习计划与资料/学习计划.xlsx
+++ b/学习计划与资料/学习计划.xlsx
@@ -698,7 +698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="84" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="111" customFormat="1" s="1">
       <c r="A9" s="2">
         <f>A8+7</f>
         <v>25569.333333333332</v>
@@ -717,7 +717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="57.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="81" customFormat="1" s="1">
       <c r="A10" s="2">
         <f>A9+7</f>
         <v>25569.333333333332</v>
@@ -736,7 +736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="31.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="36" customFormat="1" s="1">
       <c r="A11" s="2">
         <f>A10+7</f>
         <v>25569.333333333332</v>
@@ -755,7 +755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="31.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="36" customFormat="1" s="1">
       <c r="A12" s="2">
         <f>A11+7</f>
         <v>25569.333333333332</v>
@@ -774,7 +774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="84" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="111" customFormat="1" s="1">
       <c r="A13" s="2">
         <f>A12+7</f>
         <v>25569.333333333332</v>

--- a/学习计划与资料/学习计划.xlsx
+++ b/学习计划与资料/学习计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>起止时间</t>
   </si>
@@ -150,6 +150,11 @@
     <t>1. 分析报告一份（可选）
 2. 更改后的WS-BERT算法
 3. 算法实验结果</t>
+  </si>
+  <si>
+    <t>1. 融合WS-BERT与BS-RGCN的情感分析模块
+2. 融合WS-BERT与BS-RGCN的知识图谱嵌入模块
+3. 1/2 任选其一完成，并明确融合的目的是为了解决什么问题</t>
   </si>
   <si>
     <t>1. 整理已完成的工作，形成报告</t>
@@ -882,7 +887,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>31</v>
@@ -898,13 +903,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="31.5" customFormat="1" s="1">
@@ -917,13 +922,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="31.5" customFormat="1" s="1">
@@ -936,13 +941,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/学习计划与资料/学习计划.xlsx
+++ b/学习计划与资料/学习计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>起止时间</t>
   </si>
@@ -98,6 +98,10 @@
     <t>1. 理解论文提出的问题，并明确以往的立场检测方法有何不足
 2. 理解论文提出的具体立场检测方法
 3. 了解论文中发布的VAST数据集，了解数据集基本统计特征</t>
+  </si>
+  <si>
+    <t>1.阅读学习《Zero-Shot Stance Detection A Dataset and Model using Generalized Topic Representations》
+2.VAST数据集分析</t>
   </si>
   <si>
     <t>1.阅读学习《Infusing Knowledge from Wikipedia to Enhance Stance Detection》</t>
@@ -713,7 +717,7 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>18</v>
@@ -732,10 +736,10 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -751,13 +755,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="36" customFormat="1" s="1">
@@ -770,13 +774,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="111" customFormat="1" s="1">
@@ -789,13 +793,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="70.5" customFormat="1" s="1">
@@ -808,13 +812,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="84" customFormat="1" s="1">
@@ -827,13 +831,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="84" customFormat="1" s="1">
@@ -846,13 +850,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="84" customFormat="1" s="1">
@@ -865,13 +869,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="84" customFormat="1" s="1">
@@ -884,13 +888,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="31.5" customFormat="1" s="1">
@@ -903,13 +907,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="31.5" customFormat="1" s="1">
@@ -922,13 +926,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="31.5" customFormat="1" s="1">
@@ -941,13 +945,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/学习计划与资料/学习计划.xlsx
+++ b/学习计划与资料/学习计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>起止时间</t>
   </si>
@@ -98,10 +98,6 @@
     <t>1. 理解论文提出的问题，并明确以往的立场检测方法有何不足
 2. 理解论文提出的具体立场检测方法
 3. 了解论文中发布的VAST数据集，了解数据集基本统计特征</t>
-  </si>
-  <si>
-    <t>1.阅读学习《Zero-Shot Stance Detection A Dataset and Model using Generalized Topic Representations》
-2.VAST数据集分析</t>
   </si>
   <si>
     <t>1.阅读学习《Infusing Knowledge from Wikipedia to Enhance Stance Detection》</t>
@@ -717,7 +713,7 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>18</v>
@@ -736,10 +732,10 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
@@ -755,13 +751,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="36" customFormat="1" s="1">
@@ -774,13 +770,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="111" customFormat="1" s="1">
@@ -793,16 +789,16 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="70.5" customFormat="1" s="1">
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="81" customFormat="1" s="1">
       <c r="A14" s="2">
         <f>A13+7</f>
         <v>25569.333333333332</v>
@@ -812,16 +808,16 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="84" customFormat="1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="111" customFormat="1" s="1">
       <c r="A15" s="2">
         <f>A14+7</f>
         <v>25569.333333333332</v>
@@ -831,16 +827,16 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="84" customFormat="1" s="1">
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="111" customFormat="1" s="1">
       <c r="A16" s="2">
         <f>A15+7</f>
         <v>25569.333333333332</v>
@@ -850,13 +846,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="84" customFormat="1" s="1">
@@ -869,13 +865,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="84" customFormat="1" s="1">
@@ -888,13 +884,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="31.5" customFormat="1" s="1">
@@ -907,13 +903,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="31.5" customFormat="1" s="1">
@@ -926,13 +922,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="31.5" customFormat="1" s="1">
@@ -945,13 +941,13 @@
         <v>25569.333333333332</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/学习计划与资料/学习计划.xlsx
+++ b/学习计划与资料/学习计划.xlsx
@@ -868,7 +868,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>31</v>
